--- a/Project3/brute_data_9.xlsx
+++ b/Project3/brute_data_9.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Documents\ComputationalPhysics\Projects\Gruppe\Project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tore/Documents/2019 høst/Computational-Physics-group/Project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2B963B8-57E3-4F88-923E-C64A963B2518}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA42EED-A092-C544-87CD-BAA31AF925E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276"/>
+    <workbookView xWindow="1180" yWindow="1060" windowWidth="27240" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="brute_data_9" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,13 +35,13 @@
     <t>STD</t>
   </si>
   <si>
-    <t>INTEGRAL</t>
+    <t>Integral</t>
   </si>
   <si>
-    <t>TIME</t>
+    <t>Time</t>
   </si>
   <si>
-    <t>AVG</t>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
@@ -40,14 +50,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -85,28 +95,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -114,7 +124,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -122,14 +132,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -137,14 +147,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -152,7 +162,7 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -160,14 +170,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -875,12 +885,15 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -891,151 +904,151 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
-        <v>2.4930299999999998E-3</v>
+        <v>9.5089800000000004E-4</v>
       </c>
       <c r="C2">
-        <v>0.19450066060000001</v>
+        <v>0.1910075705</v>
       </c>
       <c r="D2">
-        <v>65.861424499999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>98.045579169999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>2.5260424669999999E-3</v>
+        <v>1.0855905569999999E-3</v>
       </c>
       <c r="C3">
-        <v>0.1956473416</v>
+        <v>0.19309562690000001</v>
       </c>
       <c r="D3">
-        <v>64.687362699999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>98.342571530000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>2.5552398090000002E-3</v>
+        <v>9.8790553029999995E-4</v>
       </c>
       <c r="C4">
-        <v>0.19329364769999999</v>
+        <v>0.19272740629999999</v>
       </c>
       <c r="D4">
-        <v>63.259522400000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>98.2377939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>1.9899599410000001E-3</v>
+        <v>1.0851493699999999E-3</v>
       </c>
       <c r="C5">
-        <v>0.18949403419999999</v>
+        <v>0.194158211</v>
       </c>
       <c r="D5">
-        <v>63.5311533</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>99.778155569999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>2.4251070659999999E-3</v>
+        <v>1.0595598529999999E-3</v>
       </c>
       <c r="C6">
-        <v>0.1925750306</v>
+        <v>0.19305126789999999</v>
       </c>
       <c r="D6">
-        <v>62.128668500000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>103.5504213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>2.5424553680000002E-3</v>
+        <v>1.0962150900000001E-3</v>
       </c>
       <c r="C7">
-        <v>0.19580985000000001</v>
+        <v>0.19400646260000001</v>
       </c>
       <c r="D7">
-        <v>62.232511199999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>98.210728470000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>2.5701035099999999E-3</v>
+        <v>1.29734856E-3</v>
       </c>
       <c r="C8">
-        <v>0.19332477310000001</v>
+        <v>0.1931227515</v>
       </c>
       <c r="D8">
-        <v>63.551605799999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>98.252529440000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>2.0352279329999999E-3</v>
+        <v>1.0909581759999999E-3</v>
       </c>
       <c r="C9">
-        <v>0.18978036370000001</v>
+        <v>0.1936196717</v>
       </c>
       <c r="D9">
-        <v>66.258159599999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>99.112405330000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>1.982105676E-3</v>
+        <v>1.041741636E-3</v>
       </c>
       <c r="C10">
-        <v>0.18937711939999999</v>
+        <v>0.19184460710000001</v>
       </c>
       <c r="D10">
-        <v>65.988166399999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>98.081835720000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>2.0525277339999998E-3</v>
+        <v>1.0010040880000001E-3</v>
       </c>
       <c r="C11">
-        <v>0.18963346959999999</v>
+        <v>0.19240293</v>
       </c>
       <c r="D11">
-        <v>63.091013699999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>97.994210580000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13">
         <f>AVERAGE(B2:B11)</f>
-        <v>2.3171799504E-3</v>
+        <v>1.06963708603E-3</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:D13" si="0">AVERAGE(C2:C11)</f>
-        <v>0.19234362904999999</v>
+        <f>AVERAGE(C2:C11)</f>
+        <v>0.19290365055</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>64.058958809999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <f>AVERAGE(D2:D11)</f>
+        <v>98.960623100999982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14">
         <f>_xlfn.STDEV.S(B2:B11)</f>
-        <v>2.6383335013614804E-4</v>
+        <v>9.4208900068985953E-5</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:D14" si="1">_xlfn.STDEV.S(C2:C11)</f>
-        <v>2.589216504532837E-3</v>
+        <f>_xlfn.STDEV.S(C2:C11)</f>
+        <v>9.6654765616222633E-4</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
-        <v>1.541140762492661</v>
+        <f>_xlfn.STDEV.S(D2:D11)</f>
+        <v>1.7084554069050617</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Project3/brute_data_9.xlsx
+++ b/Project3/brute_data_9.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tore/Documents/2019 høst/Computational-Physics-group/Project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA42EED-A092-C544-87CD-BAA31AF925E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025CA768-FF24-E345-A429-2705720A60F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1060" windowWidth="27240" windowHeight="16440"/>
+    <workbookView xWindow="1180" yWindow="1060" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="brute_data_9" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>STD</t>
   </si>
@@ -43,11 +43,17 @@
   <si>
     <t>Avg</t>
   </si>
+  <si>
+    <t>RMS</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -881,140 +887,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>9.5089800000000004E-4</v>
       </c>
       <c r="C2">
+        <f>B2^2</f>
+        <v>9.0420700640400005E-7</v>
+      </c>
+      <c r="D2">
         <v>0.1910075705</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>98.045579169999996</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1.0855905569999999E-3</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C11" si="0">B3^2</f>
+        <v>1.1785068574475701E-6</v>
+      </c>
+      <c r="D3">
         <v>0.19309562690000001</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>98.342571530000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>9.8790553029999995E-4</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
+        <v>9.7595733679732406E-7</v>
+      </c>
+      <c r="D4">
         <v>0.19272740629999999</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>98.2377939</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1.0851493699999999E-3</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.1775491552113966E-6</v>
+      </c>
+      <c r="D5">
         <v>0.194158211</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>99.778155569999996</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1.0595598529999999E-3</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.1226670820893813E-6</v>
+      </c>
+      <c r="D6">
         <v>0.19305126789999999</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>103.5504213</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1.0962150900000001E-3</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.2016875235437081E-6</v>
+      </c>
+      <c r="D7">
         <v>0.19400646260000001</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>98.210728470000006</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1.29734856E-3</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.6831132861340736E-6</v>
+      </c>
+      <c r="D8">
         <v>0.1931227515</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>98.252529440000004</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1.0909581759999999E-3</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.1901897417812467E-6</v>
+      </c>
+      <c r="D9">
         <v>0.1936196717</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>99.112405330000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1.041741636E-3</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.0852256361759563E-6</v>
+      </c>
+      <c r="D10">
         <v>0.19184460710000001</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>98.081835720000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>1.0010040880000001E-3</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.0020091841927118E-6</v>
+      </c>
+      <c r="D11">
         <v>0.19240293</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>97.994210580000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1024,28 +1074,37 @@
       </c>
       <c r="C13">
         <f>AVERAGE(C2:C11)</f>
-        <v>0.19290365055</v>
+        <v>1.1521112809777369E-6</v>
       </c>
       <c r="D13">
         <f>AVERAGE(D2:D11)</f>
+        <v>0.19290365055</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE(E2:E11)</f>
         <v>98.960623100999982</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14">
-        <f>_xlfn.STDEV.S(B2:B11)</f>
-        <v>9.4208900068985953E-5</v>
-      </c>
-      <c r="C14">
-        <f>_xlfn.STDEV.S(C2:C11)</f>
-        <v>9.6654765616222633E-4</v>
-      </c>
       <c r="D14">
         <f>_xlfn.STDEV.S(D2:D11)</f>
+        <v>9.6654765616222633E-4</v>
+      </c>
+      <c r="E14">
+        <f>_xlfn.STDEV.S(E2:E11)</f>
         <v>1.7084554069050617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <f>SQRT(C13)</f>
+        <v>1.073364467912804E-3</v>
       </c>
     </row>
   </sheetData>
